--- a/Info/BOM.xlsx
+++ b/Info/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t xml:space="preserve">Part Number</t>
   </si>
@@ -54,21 +54,24 @@
     <t xml:space="preserve">C1, C2</t>
   </si>
   <si>
+    <t>VCC</t>
+  </si>
+  <si>
     <t>220µF</t>
   </si>
   <si>
-    <t>VCC</t>
-  </si>
-  <si>
     <t>565R30GASS33</t>
   </si>
   <si>
-    <t xml:space="preserve">THT Ceramic Cap (Not polarised)</t>
+    <t xml:space="preserve">THT Ceramic Capacitor (Not polarised)</t>
   </si>
   <si>
     <t>C3-C6</t>
   </si>
   <si>
+    <t>ATMEGA</t>
+  </si>
+  <si>
     <t>100nF</t>
   </si>
   <si>
@@ -87,12 +90,15 @@
     <t xml:space="preserve">CL21 Series 0805</t>
   </si>
   <si>
-    <t xml:space="preserve">0805 SMD Ceramic Cap</t>
+    <t xml:space="preserve">SMD 0805 Ceramic Capacitor</t>
   </si>
   <si>
     <t xml:space="preserve">C7, C10, C13, C14</t>
   </si>
   <si>
+    <t>ALARM</t>
+  </si>
+  <si>
     <t>220nF</t>
   </si>
   <si>
@@ -105,7 +111,7 @@
     <t>TAJR684K016RNJ</t>
   </si>
   <si>
-    <t xml:space="preserve">0805 SMD Tantalum Cap</t>
+    <t xml:space="preserve">SMD 0805 Tantalum Capacitor</t>
   </si>
   <si>
     <t xml:space="preserve">C8–C12, C15–C25</t>
@@ -249,15 +255,12 @@
     <t>CR0805-FX-22R6ELF</t>
   </si>
   <si>
-    <t xml:space="preserve">0805 Resistor</t>
+    <t xml:space="preserve">SMD 0805 Resistor</t>
   </si>
   <si>
     <t>R7–R45</t>
   </si>
   <si>
-    <t>ALARM</t>
-  </si>
-  <si>
     <t>1ME</t>
   </si>
   <si>
@@ -321,7 +324,7 @@
     <t>ATmega328P-PU</t>
   </si>
   <si>
-    <t xml:space="preserve">AVR Microcontroller 28-pin PDIP</t>
+    <t xml:space="preserve">THT AVR Microcontroller 28-pin PDIP</t>
   </si>
   <si>
     <t>U1</t>
@@ -339,7 +342,7 @@
     <t>74HC595N</t>
   </si>
   <si>
-    <t xml:space="preserve">SMD 8-bit Shift Register</t>
+    <t xml:space="preserve">THT 8-bit Shift Register</t>
   </si>
   <si>
     <t xml:space="preserve">U3, U5–U7</t>
@@ -376,15 +379,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,17 +408,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.049989318521683403"/>
+        <bgColor theme="0" tint="-0.049989318521683403"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
       <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal style="none"/>
     </border>
     <border>
@@ -421,31 +466,101 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="3" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Linked Cell" xfId="2" builtinId="24"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -962,767 +1077,776 @@
     <col customWidth="1" min="1" max="1" width="32.28125"/>
     <col customWidth="1" min="2" max="2" width="46.8515625"/>
     <col customWidth="1" min="3" max="3" width="20.140625"/>
-    <col customWidth="1" min="5" max="5" width="15.7109375"/>
+    <col customWidth="1" min="5" max="5" style="1" width="15.7109375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="3">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="19">
+        <v>39</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="3">
+        <v>9</v>
+      </c>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="3">
+        <v>3</v>
+      </c>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3">
+        <v>6</v>
+      </c>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="2">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="2">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="2">
-        <v>4</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="2">
-        <v>39</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2">
-        <v>9</v>
-      </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="2">
-        <v>4</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="2">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="2">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="2">
-        <v>6</v>
-      </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="A51" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="2">
-        <v>4</v>
-      </c>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="A52" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="A53" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="A54" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="2">
-        <v>4</v>
-      </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="B55" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4"/>
+      <c r="C55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="B56" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4"/>
+      <c r="C56" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="B57" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4"/>
+      <c r="C57" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="E31:E50"/>
+  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>

--- a/Info/BOM.xlsx
+++ b/Info/BOM.xlsx
@@ -476,8 +476,8 @@
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -486,11 +486,11 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -499,9 +499,9 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="3">
@@ -509,9 +509,12 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,12 +527,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,20 +535,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1084,33 +1075,33 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1118,58 +1109,58 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1177,14 +1168,14 @@
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1192,257 +1183,257 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="7">
         <v>15</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3">
+      <c r="C14" s="6"/>
+      <c r="D14" s="4">
         <v>4</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="4">
         <v>6</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3">
+      <c r="C16" s="6"/>
+      <c r="D16" s="4">
         <v>5</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3"/>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>4</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>11</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="7">
@@ -1451,14 +1442,14 @@
       <c r="E26" s="7"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>3</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1466,14 +1457,14 @@
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -1481,14 +1472,14 @@
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1496,14 +1487,14 @@
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>4</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1514,332 +1505,332 @@
       <c r="A31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="14">
         <v>39</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="16"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="16"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="16"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="16"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="16"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="3">
+      <c r="C37" s="6"/>
+      <c r="D37" s="4">
         <v>9</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="3">
+      <c r="C38" s="6"/>
+      <c r="D38" s="4">
         <v>4</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="3">
+      <c r="C39" s="6"/>
+      <c r="D39" s="4">
         <v>2</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="16"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="3">
+      <c r="C41" s="6"/>
+      <c r="D41" s="4">
         <v>2</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="10"/>
+      <c r="B42" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="3">
+      <c r="C42" s="6"/>
+      <c r="D42" s="4">
         <v>3</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="3">
+      <c r="C43" s="6"/>
+      <c r="D43" s="4">
         <v>6</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="10"/>
+      <c r="B44" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="16"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="16"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="16"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="16"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="16"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
-      <c r="E49" s="16"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50" s="13"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="4">
         <v>4</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3"/>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3"/>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="4">
         <v>4</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3"/>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3"/>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3"/>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Info/BOM.xlsx
+++ b/Info/BOM.xlsx
@@ -90,7 +90,7 @@
     <t xml:space="preserve">CL21 Series 0805</t>
   </si>
   <si>
-    <t xml:space="preserve">SMD 0805 Ceramic Capacitor</t>
+    <t xml:space="preserve">SMD 0805 Ceramic Capacitor (Not Polarised)</t>
   </si>
   <si>
     <t xml:space="preserve">C7, C10, C13, C14</t>
@@ -111,7 +111,7 @@
     <t>TAJR684K016RNJ</t>
   </si>
   <si>
-    <t xml:space="preserve">SMD 0805 Tantalum Capacitor</t>
+    <t xml:space="preserve">SMD Elco Capacitor (Polarised)</t>
   </si>
   <si>
     <t xml:space="preserve">C8–C12, C15–C25</t>
@@ -509,12 +509,9 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,11 +535,17 @@
     <xf fontId="0" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,762 +1078,762 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4">
+      <c r="C9" s="5"/>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="12"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4">
+      <c r="C10" s="5"/>
+      <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="12"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="12"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="12"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>15</v>
       </c>
       <c r="E13" s="12"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="3">
         <v>4</v>
       </c>
       <c r="E14" s="12"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4">
+      <c r="C15" s="5"/>
+      <c r="D15" s="3">
         <v>6</v>
       </c>
       <c r="E15" s="12"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4">
+      <c r="C16" s="5"/>
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4"/>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4"/>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>4</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4"/>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>2</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>11</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>9</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>4</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="15">
         <v>39</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4">
+      <c r="C32" s="5"/>
+      <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="12"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="4">
+      <c r="C33" s="5"/>
+      <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="12"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4">
+      <c r="C34" s="5"/>
+      <c r="D34" s="3">
         <v>1</v>
       </c>
       <c r="E34" s="12"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="4">
+      <c r="C35" s="5"/>
+      <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="12"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="4">
+      <c r="C36" s="5"/>
+      <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="12"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="4">
+      <c r="C37" s="5"/>
+      <c r="D37" s="3">
         <v>9</v>
       </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="4">
+      <c r="C38" s="5"/>
+      <c r="D38" s="3">
         <v>4</v>
       </c>
       <c r="E38" s="12"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="4">
+      <c r="C39" s="5"/>
+      <c r="D39" s="3">
         <v>2</v>
       </c>
       <c r="E39" s="12"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="4">
+      <c r="C40" s="5"/>
+      <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="E40" s="12"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="4">
+      <c r="C41" s="5"/>
+      <c r="D41" s="3">
         <v>2</v>
       </c>
       <c r="E41" s="12"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="4">
+      <c r="C42" s="5"/>
+      <c r="D42" s="3">
         <v>3</v>
       </c>
       <c r="E42" s="12"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="4">
+      <c r="C43" s="5"/>
+      <c r="D43" s="3">
         <v>6</v>
       </c>
       <c r="E43" s="12"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="4">
+      <c r="C44" s="5"/>
+      <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="12"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="4">
+      <c r="C45" s="5"/>
+      <c r="D45" s="3">
         <v>1</v>
       </c>
       <c r="E45" s="12"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="9"/>
+      <c r="B46" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="4">
+      <c r="C46" s="5"/>
+      <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" s="12"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="4">
+      <c r="C47" s="5"/>
+      <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" s="12"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="4">
+      <c r="C48" s="5"/>
+      <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="12"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="9"/>
+      <c r="B49" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="4">
+      <c r="C49" s="5"/>
+      <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="12"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="6" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="11"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>4</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4"/>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4"/>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>4</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4"/>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4"/>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4"/>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Info/BOM.xlsx
+++ b/Info/BOM.xlsx
@@ -108,7 +108,7 @@
     <t>4n7F</t>
   </si>
   <si>
-    <t>TAJR684K016RNJ</t>
+    <t xml:space="preserve"> FP-OS-CON-SMT-C6-MFG</t>
   </si>
   <si>
     <t xml:space="preserve">SMD Elco Capacitor (Polarised)</t>
@@ -509,7 +509,7 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,17 +535,14 @@
     <xf fontId="0" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1189,7 +1186,7 @@
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1211,7 +1208,7 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="9"/>
@@ -1222,7 +1219,7 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="9"/>
@@ -1233,7 +1230,7 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="9"/>
@@ -1244,13 +1241,13 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1259,18 +1256,18 @@
       <c r="D13" s="6">
         <v>15</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="9"/>
@@ -1281,7 +1278,7 @@
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="9"/>
@@ -1514,7 +1511,7 @@
       <c r="C31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>39</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -1530,7 +1527,7 @@
       <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="9"/>
@@ -1541,7 +1538,7 @@
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="9"/>
@@ -1552,7 +1549,7 @@
       <c r="D34" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="9"/>
@@ -1563,7 +1560,7 @@
       <c r="D35" s="3">
         <v>1</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="9"/>
@@ -1574,7 +1571,7 @@
       <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="9"/>
@@ -1585,7 +1582,7 @@
       <c r="D37" s="3">
         <v>9</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="9"/>
@@ -1596,7 +1593,7 @@
       <c r="D38" s="3">
         <v>4</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="9"/>
@@ -1607,7 +1604,7 @@
       <c r="D39" s="3">
         <v>2</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="9"/>
@@ -1618,7 +1615,7 @@
       <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="9"/>
@@ -1629,7 +1626,7 @@
       <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="9"/>
@@ -1640,7 +1637,7 @@
       <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="9"/>
@@ -1651,7 +1648,7 @@
       <c r="D43" s="3">
         <v>6</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="9"/>
@@ -1662,7 +1659,7 @@
       <c r="D44" s="3">
         <v>1</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="9"/>
@@ -1673,7 +1670,7 @@
       <c r="D45" s="3">
         <v>1</v>
       </c>
-      <c r="E45" s="12"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="9"/>
@@ -1684,7 +1681,7 @@
       <c r="D46" s="3">
         <v>1</v>
       </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="9"/>
@@ -1695,7 +1692,7 @@
       <c r="D47" s="3">
         <v>1</v>
       </c>
-      <c r="E47" s="12"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="9"/>
@@ -1706,7 +1703,7 @@
       <c r="D48" s="3">
         <v>1</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="9"/>
@@ -1717,7 +1714,7 @@
       <c r="D49" s="3">
         <v>1</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="9"/>

--- a/Info/BOM.xlsx
+++ b/Info/BOM.xlsx
@@ -535,11 +535,11 @@
     <xf fontId="0" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1186,7 +1186,7 @@
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1208,7 +1208,7 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="9"/>
@@ -1219,7 +1219,7 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="9"/>
@@ -1230,7 +1230,7 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="9"/>
@@ -1241,10 +1241,10 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1256,7 +1256,7 @@
       <c r="D13" s="6">
         <v>15</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="13"/>
@@ -1267,7 +1267,7 @@
       <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="9"/>
@@ -1278,7 +1278,7 @@
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="9"/>
@@ -1527,7 +1527,7 @@
       <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="9"/>
@@ -1538,7 +1538,7 @@
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="9"/>
@@ -1549,7 +1549,7 @@
       <c r="D34" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="9"/>
@@ -1560,7 +1560,7 @@
       <c r="D35" s="3">
         <v>1</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="9"/>
@@ -1571,7 +1571,7 @@
       <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="9"/>
@@ -1582,7 +1582,7 @@
       <c r="D37" s="3">
         <v>9</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="9"/>
@@ -1593,7 +1593,7 @@
       <c r="D38" s="3">
         <v>4</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="9"/>
@@ -1604,7 +1604,7 @@
       <c r="D39" s="3">
         <v>2</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="9"/>
@@ -1615,7 +1615,7 @@
       <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="9"/>
@@ -1626,7 +1626,7 @@
       <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="9"/>
@@ -1637,7 +1637,7 @@
       <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="9"/>
@@ -1648,7 +1648,7 @@
       <c r="D43" s="3">
         <v>6</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="9"/>
@@ -1659,7 +1659,7 @@
       <c r="D44" s="3">
         <v>1</v>
       </c>
-      <c r="E44" s="11"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="9"/>
@@ -1670,7 +1670,7 @@
       <c r="D45" s="3">
         <v>1</v>
       </c>
-      <c r="E45" s="11"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="9"/>
@@ -1681,7 +1681,7 @@
       <c r="D46" s="3">
         <v>1</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="9"/>
@@ -1692,7 +1692,7 @@
       <c r="D47" s="3">
         <v>1</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="9"/>
@@ -1703,7 +1703,7 @@
       <c r="D48" s="3">
         <v>1</v>
       </c>
-      <c r="E48" s="11"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="9"/>
@@ -1714,7 +1714,7 @@
       <c r="D49" s="3">
         <v>1</v>
       </c>
-      <c r="E49" s="11"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="9"/>
